--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFAD95F-4D57-45F4-AD41-A027C46A6C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C488D5-A181-41CF-9FFC-5C8174789C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -341,7 +341,21 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>01:清償
+    <t>1:重要袋
+2:普通袋
+3:重要袋&amp;普通袋
+4:其他</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.ApplCode
+1:申請
+2:歸還</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.UsageCodeX
+01:清償
 02:法拍
 03:增貸
 04:展期
@@ -351,19 +365,12 @@
 08:其他</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
-  <si>
-    <t>1:重要袋
-2:普通袋
-3:重要袋&amp;普通袋
-4:其他</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1005,11 +1012,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -1020,7 +1027,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
@@ -1035,7 +1042,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="8" t="s">
@@ -1048,7 +1055,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +1070,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
@@ -1074,7 +1081,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="32.4">
+    <row r="5" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +1094,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +1105,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +1116,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1150,7 +1157,7 @@
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -1168,7 +1175,7 @@
       </c>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1186,7 +1193,7 @@
       </c>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1206,7 +1213,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1222,9 +1229,11 @@
       <c r="E13" s="23">
         <v>1</v>
       </c>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1242,7 +1251,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1260,7 +1269,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="129.6">
+    <row r="16" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1277,10 +1286,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1298,7 +1307,7 @@
       </c>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1316,7 +1325,7 @@
       </c>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -1334,7 +1343,7 @@
       </c>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -1352,7 +1361,7 @@
       </c>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1370,7 +1379,7 @@
       </c>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="64.8">
+    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1387,10 +1396,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -1407,7 +1416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -1424,7 +1433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>18</v>
       </c>
@@ -1458,7 +1467,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>19</v>
       </c>
@@ -1473,7 +1482,7 @@
       </c>
       <c r="E27" s="27"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>20</v>
       </c>
@@ -1490,7 +1499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>21</v>
       </c>
@@ -1505,7 +1514,7 @@
       </c>
       <c r="E29" s="27"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
         <v>22</v>
       </c>
@@ -1547,7 +1556,7 @@
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="93.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1555,7 +1564,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1566,7 +1575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1577,7 +1586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1588,7 +1597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -1599,7 +1608,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -1610,7 +1619,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>77</v>
       </c>
@@ -1618,7 +1627,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C488D5-A181-41CF-9FFC-5C8174789C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BD0F74-43FE-45C1-B505-3FB616ADC77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,21 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -365,12 +375,32 @@
 08:其他</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>額度備註</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNoMemo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/8/17新增:額度號碼=0時必須輸入,紀錄有哪些額度借閱檔案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/8/17:長度由60放大為100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -559,7 +589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,6 +685,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1010,13 +1043,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -1027,11 +1060,11 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
@@ -1042,9 +1075,9 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1055,11 +1088,11 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="12" t="s">
         <v>47</v>
       </c>
@@ -1070,22 +1103,22 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:7" ht="32.4">
+      <c r="A5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="12" t="s">
         <v>58</v>
       </c>
@@ -1094,29 +1127,29 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="15" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1157,7 +1190,7 @@
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -1175,7 +1208,7 @@
       </c>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1193,7 +1226,7 @@
       </c>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1213,7 +1246,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="48.6">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1233,7 +1266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1251,7 +1284,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1269,7 +1302,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="145.80000000000001">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1289,7 +1322,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1307,7 +1340,7 @@
       </c>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1325,7 +1358,7 @@
       </c>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -1343,7 +1376,7 @@
       </c>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -1361,7 +1394,7 @@
       </c>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1375,11 +1408,13 @@
         <v>45</v>
       </c>
       <c r="E21" s="23">
-        <v>60</v>
-      </c>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="64.8">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1399,7 +1434,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -1416,7 +1451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -1433,7 +1468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -1450,7 +1485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="24">
         <v>18</v>
       </c>
@@ -1467,67 +1502,87 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
+    <row r="27" spans="1:7" ht="32.4">
+      <c r="A27" s="28">
         <v>19</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="30">
+        <v>20</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="28">
+        <v>20</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C28" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D28" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
-        <v>20</v>
-      </c>
-      <c r="B28" s="25" t="s">
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="28">
+        <v>21</v>
+      </c>
+      <c r="B29" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C29" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D29" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E29" s="27">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
-        <v>21</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="28">
         <v>22</v>
       </c>
       <c r="B30" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="28">
+        <v>23</v>
+      </c>
+      <c r="B31" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C31" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D31" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E31" s="27">
         <v>6</v>
       </c>
     </row>
@@ -1556,7 +1611,7 @@
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="93.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1564,7 +1619,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1575,7 +1630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1586,7 +1641,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1597,7 +1652,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -1608,7 +1663,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -1619,7 +1674,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>77</v>
       </c>
@@ -1627,7 +1682,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BD0F74-43FE-45C1-B505-3FB616ADC77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119D3E91-C7ED-4246-A657-8963CE27E1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,21 +17,11 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -395,12 +385,24 @@
     <t>NVARCHAR2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>ApplEmpName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>借閱人姓名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉舊資料使用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -496,6 +498,20 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="思源宋體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -589,7 +605,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -605,10 +621,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -620,9 +636,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -635,9 +648,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,21 +672,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -700,6 +698,21 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1043,28 +1056,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="16" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
@@ -1076,80 +1089,80 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="32.4">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1168,421 +1181,442 @@
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <v>7</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>3</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>3</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>1</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="48.6">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>1</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <v>6</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <v>6</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" ht="145.80000000000001">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>2</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>9</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <v>8</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>11</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <v>8</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="21">
         <v>6</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>100</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="64.8">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>14</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="17">
         <v>1</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>16</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>17</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="24">
+      <c r="A26" s="17">
         <v>18</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="24">
         <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="32.4">
-      <c r="A27" s="28">
+      <c r="A27" s="17">
         <v>19</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="24">
         <v>20</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="26" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="28">
+      <c r="A28" s="17">
         <v>20</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="34">
+        <v>30</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="17">
+        <v>21</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C29" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D29" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="28">
-        <v>21</v>
-      </c>
-      <c r="B29" s="25" t="s">
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="17">
+        <v>22</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C30" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E30" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="28">
-        <v>22</v>
-      </c>
-      <c r="B30" s="25" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="17">
+        <v>23</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C31" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D31" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="28">
-        <v>23</v>
-      </c>
-      <c r="B31" s="25" t="s">
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="17">
+        <v>24</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C32" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D32" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E32" s="22">
         <v>6</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119D3E91-C7ED-4246-A657-8963CE27E1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -112,18 +111,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>TitaEntDy</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTlrNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTxtNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>額度號碼</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -147,9 +134,6 @@
     <t>用途</t>
   </si>
   <si>
-    <t>正本/影本</t>
-  </si>
-  <si>
     <t>借閱日期</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -214,10 +198,6 @@
   </si>
   <si>
     <t>ApplEmpNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplCode</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -326,9 +306,6 @@
   <si>
     <t>借款人戶號</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JsonFields</t>
   </si>
   <si>
     <t>jason格式紀錄欄</t>
@@ -346,12 +323,6 @@
 3:重要袋&amp;普通袋
 4:其他</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.ApplCode
-1:申請
-2:歸還</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.UsageCodeX
@@ -397,11 +368,45 @@
     <t>轉舊資料使用</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>TitaTxtNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsonFields</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.ApplCode
+1:申請
+2:歸還</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正本/影本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.正本 2.影本 3.正本及影本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaEntDy</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTlrNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -687,6 +692,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -698,29 +718,14 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 2 2" xfId="4" xr:uid="{FE44E59F-363A-47C9-B795-7027EFF2B131}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{05C0D31A-E96C-48F5-B3CA-7D09469B7F45}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 2 2" xfId="4"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,23 +816,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -863,23 +851,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1055,11 +1026,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1074,12 +1045,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1089,8 +1060,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1102,12 +1073,12 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1117,10 +1088,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
@@ -1128,12 +1099,12 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="32.4">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
@@ -1141,10 +1112,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
@@ -1152,10 +1123,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
@@ -1190,13 +1161,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E9" s="21">
         <v>7</v>
@@ -1208,13 +1179,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E10" s="21">
         <v>3</v>
@@ -1226,13 +1197,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" s="21">
         <v>3</v>
@@ -1247,16 +1218,16 @@
         <v>20</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E12" s="21">
         <v>1</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="48.6">
@@ -1264,19 +1235,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E13" s="21">
         <v>1</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1284,13 +1255,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E14" s="17">
         <v>6</v>
@@ -1302,13 +1273,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E15" s="17">
         <v>6</v>
@@ -1320,19 +1291,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E16" s="17">
         <v>2</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1343,28 +1314,30 @@
         <v>21</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="19" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18" s="21">
         <v>8</v>
@@ -1376,13 +1349,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E19" s="21">
         <v>8</v>
@@ -1394,13 +1367,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E20" s="21">
         <v>6</v>
@@ -1415,16 +1388,16 @@
         <v>22</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E21" s="21">
         <v>100</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="64.8">
@@ -1435,16 +1408,16 @@
         <v>23</v>
       </c>
       <c r="C22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="E22" s="17">
         <v>1</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1452,13 +1425,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E23" s="21">
         <v>8</v>
@@ -1469,13 +1442,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E24" s="17">
         <v>6</v>
@@ -1486,13 +1459,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E25" s="17">
         <v>8</v>
@@ -1503,13 +1476,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E26" s="24">
         <v>300</v>
@@ -1520,40 +1493,40 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E27" s="24">
         <v>20</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="17">
         <v>20</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="34">
+      <c r="B28" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="30">
         <v>30</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="33" t="s">
-        <v>97</v>
+      <c r="F28" s="31"/>
+      <c r="G28" s="29" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1561,13 +1534,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E29" s="22"/>
     </row>
@@ -1576,13 +1549,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E30" s="22">
         <v>6</v>
@@ -1593,13 +1566,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E31" s="22"/>
     </row>
@@ -1608,13 +1581,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E32" s="22">
         <v>6</v>
@@ -1637,7 +1610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1666,62 +1639,62 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC102129-BFEB-40D0-B68E-AA83F53123A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -118,9 +119,6 @@
     <t>申請序號</t>
   </si>
   <si>
-    <t>登放記號</t>
-  </si>
-  <si>
     <t>申請或歸還</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -322,6 +320,72 @@
 2:普通袋
 3:重要袋&amp;普通袋
 4:其他</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度備註</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNoMemo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/8/17新增:額度號碼=0時必須輸入,紀錄有哪些額度借閱檔案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/8/17:長度由60放大為100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplEmpName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>借閱人姓名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉舊資料使用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxtNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsonFields</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.ApplCode
+1:申請
+2:歸還</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正本/影本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.正本 2.影本 3.正本及影本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaEntDy</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTlrNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplCode</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -333,80 +397,22 @@
 05:撥款
 06:查閱
 07:重估
-08:其他</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>額度備註</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacmNoMemo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022/8/17新增:額度號碼=0時必須輸入,紀錄有哪些額度借閱檔案</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022/8/17:長度由60放大為100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplEmpName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>借閱人姓名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>轉舊資料使用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTxtNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>JsonFields</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.ApplCode
-1:申請
-2:歸還</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>正本/影本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.正本 2.影本 3.正本及影本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaEntDy</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTlrNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+08:其他
+09:查核
+10:補發
+11:部分塗銷
+12:領還暫不領</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>登放記號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -722,10 +728,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 2 2" xfId="4"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,9 +747,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -781,9 +787,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -818,7 +824,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -853,7 +859,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1026,11 +1032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1050,7 +1056,7 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1078,7 +1084,7 @@
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1104,7 +1110,7 @@
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
@@ -1161,13 +1167,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="21">
         <v>7</v>
@@ -1179,13 +1185,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="21">
         <v>3</v>
@@ -1197,13 +1203,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="21">
         <v>3</v>
@@ -1218,16 +1224,16 @@
         <v>20</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="21">
         <v>1</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="48.6">
@@ -1235,19 +1241,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="21">
         <v>1</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1255,13 +1261,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="17">
         <v>6</v>
@@ -1273,37 +1279,37 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="17">
         <v>6</v>
       </c>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" ht="145.80000000000001">
+    <row r="16" spans="1:7" ht="210.6">
       <c r="A16" s="17">
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="17">
         <v>2</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1314,16 +1320,16 @@
         <v>21</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="21">
         <v>1</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1331,13 +1337,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="21">
         <v>8</v>
@@ -1349,13 +1355,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="21">
         <v>8</v>
@@ -1367,13 +1373,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="21">
         <v>6</v>
@@ -1388,16 +1394,16 @@
         <v>22</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="21">
         <v>100</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="64.8">
@@ -1408,16 +1414,16 @@
         <v>23</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="17">
         <v>1</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1425,13 +1431,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="21">
         <v>8</v>
@@ -1442,13 +1448,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="17">
         <v>6</v>
@@ -1459,13 +1465,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="17">
         <v>8</v>
@@ -1476,13 +1482,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="E26" s="24">
         <v>300</v>
@@ -1493,19 +1499,19 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E27" s="24">
         <v>20</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1513,20 +1519,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="30">
         <v>30</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1534,13 +1540,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="D29" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>65</v>
       </c>
       <c r="E29" s="22"/>
     </row>
@@ -1549,13 +1555,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>67</v>
-      </c>
       <c r="D30" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="22">
         <v>6</v>
@@ -1566,13 +1572,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>69</v>
-      </c>
       <c r="D31" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="22"/>
     </row>
@@ -1581,13 +1587,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>71</v>
-      </c>
       <c r="D32" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="22">
         <v>6</v>
@@ -1610,7 +1616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1639,62 +1645,62 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
@@ -1,73 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC102129-BFEB-40D0-B68E-AA83F53123A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6929A4D6-2244-4A18-ADD0-EB79A387DCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="JsonFields" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欄位名稱</t>
@@ -89,38 +90,34 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>檔案借閱檔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaActFg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CopyCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Remark</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ApplObj</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>額度號碼</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>申請序號</t>
   </si>
   <si>
     <t>申請或歸還</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>借閱人</t>
@@ -133,7 +130,7 @@
   </si>
   <si>
     <t>借閱日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>歸還日期</t>
@@ -149,110 +146,110 @@
   </si>
   <si>
     <t>登錄日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>登錄經辦</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>登錄交易序號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,FacmNo,ApplSeq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DecimalD</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>InnDocRecord</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ApplSeq</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>KeeperEmpNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ApplEmpNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ReturnDate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ReturnEmpNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ApplDate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,ApplDate,UsageCode,ApplCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo ASC ,ApplDate ASC ,UsageCode ASC ,ApplCode ASC </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND ApplDate &gt;= ,AND ApplDate &lt;= ,AND UsageCode = ,AND ApplCode = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND ApplDate &gt;= ,AND ApplDate &lt;= ,AND ApplCode = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND ApplDate &gt;= ,AND ApplDate &lt;= ,AND UsageCode = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND ApplDate &gt;= ,AND ApplDate &lt;= </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>findL5903ARg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>findL5903BRg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>findL5903CRg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>findL5903DRg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
@@ -283,110 +280,106 @@
   </si>
   <si>
     <t>findL5104ARg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ApplDate &gt;= ,AND ApplDate &lt;= ,AND ReturnDate = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>UsageCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ApplDate &gt;= ,AND ApplDate &lt;= ,AND UsageCode = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>findL5104BRg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>借款人戶號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>jason格式紀錄欄</t>
   </si>
   <si>
     <t>NVARCHAR2</t>
-  </si>
-  <si>
-    <t>1/2/3/4:3STEP TX</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1:重要袋
 2:普通袋
 3:重要袋&amp;普通袋
 4:其他</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>額度備註</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FacmNoMemo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2022/8/17新增:額度號碼=0時必須輸入,紀錄有哪些額度借閱檔案</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2022/8/17:長度由60放大為100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ApplEmpName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>借閱人姓名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>轉舊資料使用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TitaTxtNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>JsonFields</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.ApplCode
 1:申請
 2:歸還</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>正本/影本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.正本 2.影本 3.正本及影本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TitaEntDy</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>TitaTlrNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ApplCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.UsageCodeX
@@ -402,23 +395,66 @@
 10:補發
 11:部分塗銷
 12:領還暫不領</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaActFg</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>登放記號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.ActFgX
+1:登錄
+2:放行
+3:審核
+4:審核放行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELCD</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT  JSON_VALUE  ("JsonFields",  '$.RELCD') AS RELCD</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程類別</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>2:兩段式 4.四段式</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>依戶號編流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -523,8 +559,15 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +577,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,74 +648,98 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -675,63 +748,82 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="一般 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 2 4" xfId="5" xr:uid="{0B44742D-683B-4F2E-86C9-3DA85135095D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1035,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1056,7 +1148,7 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1084,7 +1176,7 @@
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1110,7 +1202,7 @@
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
@@ -1167,13 +1259,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="21">
         <v>7</v>
@@ -1185,13 +1277,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="21">
         <v>3</v>
@@ -1203,37 +1295,40 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="21">
         <v>3</v>
       </c>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="17">
+      <c r="G11" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="81">
+      <c r="A12" s="36">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41" t="s">
         <v>98</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="21">
-        <v>1</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="48.6">
@@ -1241,19 +1336,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="21">
         <v>1</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1261,13 +1356,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="17">
         <v>6</v>
@@ -1279,13 +1374,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="17">
         <v>6</v>
@@ -1297,19 +1392,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="17">
         <v>2</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1317,19 +1412,19 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="21">
         <v>1</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1337,13 +1432,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="21">
         <v>8</v>
@@ -1355,13 +1450,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="21">
         <v>8</v>
@@ -1373,13 +1468,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="21">
         <v>6</v>
@@ -1391,19 +1486,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="21">
         <v>100</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="64.8">
@@ -1411,19 +1506,19 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="17">
         <v>1</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1431,13 +1526,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="21">
         <v>8</v>
@@ -1448,13 +1543,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="17">
         <v>6</v>
@@ -1465,13 +1560,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="17">
         <v>8</v>
@@ -1482,13 +1577,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C26" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>78</v>
       </c>
       <c r="E26" s="24">
         <v>300</v>
@@ -1499,19 +1594,19 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E27" s="24">
         <v>20</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1519,20 +1614,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="30">
         <v>30</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1540,13 +1635,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="D29" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>64</v>
       </c>
       <c r="E29" s="22"/>
     </row>
@@ -1555,13 +1650,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="D30" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="22">
         <v>6</v>
@@ -1572,13 +1667,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="D31" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" s="22"/>
     </row>
@@ -1587,13 +1682,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="D32" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="22">
         <v>6</v>
@@ -1609,7 +1704,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1645,67 +1740,133 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91F899E-DE3A-4B8B-84C1-0BB2484F3F1A}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="44">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="44">
+        <v>1</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="42"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6929A4D6-2244-4A18-ADD0-EB79A387DCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DF005B-CBAA-4954-A6FD-ED3EC9CC7403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>建檔日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>CreateEmpNo</t>
@@ -436,12 +433,15 @@
     <t>依戶號編流水號</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -668,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,6 +765,27 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -776,45 +797,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1127,11 +1109,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -1142,11 +1124,11 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
@@ -1157,9 +1139,9 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1170,11 +1152,11 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="11" t="s">
         <v>41</v>
       </c>
@@ -1185,22 +1167,22 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="32.4">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="11" t="s">
         <v>51</v>
       </c>
@@ -1209,29 +1191,29 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -1262,7 +1244,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>38</v>
@@ -1272,7 +1254,7 @@
       </c>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -1290,7 +1272,7 @@
       </c>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>3</v>
       </c>
@@ -1307,36 +1289,35 @@
         <v>3</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="81">
-      <c r="A12" s="36">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="D12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="39">
-        <v>1</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="48.6">
+    </row>
+    <row r="13" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>25</v>
@@ -1348,10 +1329,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>6</v>
       </c>
@@ -1369,7 +1350,7 @@
       </c>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>7</v>
       </c>
@@ -1387,12 +1368,12 @@
       </c>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" ht="210.6">
+    <row r="16" spans="1:7" ht="257.39999999999998" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>28</v>
@@ -1404,10 +1385,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>9</v>
       </c>
@@ -1415,7 +1396,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>37</v>
@@ -1424,10 +1405,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>10</v>
       </c>
@@ -1445,7 +1426,7 @@
       </c>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>11</v>
       </c>
@@ -1463,7 +1444,7 @@
       </c>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>12</v>
       </c>
@@ -1481,7 +1462,7 @@
       </c>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>13</v>
       </c>
@@ -1498,10 +1479,10 @@
         <v>100</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="64.8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>14</v>
       </c>
@@ -1518,15 +1499,15 @@
         <v>1</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>34</v>
@@ -1538,12 +1519,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>35</v>
@@ -1555,12 +1536,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>36</v>
@@ -1572,65 +1553,65 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>18</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="E26" s="24">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="32.4">
+    <row r="27" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="24">
         <v>20</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>20</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>85</v>
-      </c>
       <c r="D28" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" s="30">
         <v>30</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>21</v>
       </c>
@@ -1641,19 +1622,19 @@
         <v>62</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>37</v>
@@ -1662,30 +1643,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>67</v>
-      </c>
       <c r="D31" s="17" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>69</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>37</v>
@@ -1719,7 +1700,7 @@
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="93.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1727,7 +1708,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1738,7 +1719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -1749,7 +1730,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -1760,7 +1741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -1771,7 +1752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -1782,20 +1763,20 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +1794,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.44140625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
@@ -1824,46 +1805,46 @@
     <col min="7" max="7" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="44">
+      <c r="D2" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="44" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="44">
-        <v>1</v>
-      </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="42"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
